--- a/StructureDefinition-ext-R5-ImagingSelection.xlsx
+++ b/StructureDefinition-ext-R5-ImagingSelection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -916,7 +916,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:concept.id</t>
@@ -949,7 +949,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-ImagingSelection.xlsx
+++ b/StructureDefinition-ext-R5-ImagingSelection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -391,6 +391,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.status</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -438,6 +441,9 @@
     <t>Extension.extension:issued.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.issued</t>
+  </si>
+  <si>
     <t>Extension.extension:issued.value[x]</t>
   </si>
   <si>
@@ -499,6 +505,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.performer.function</t>
+  </si>
+  <si>
     <t>Extension.extension:performer.extension:function.value[x]</t>
   </si>
   <si>
@@ -542,6 +551,9 @@
     <t>Extension.extension:performer.extension:actor.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.performer.actor</t>
+  </si>
+  <si>
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
@@ -592,6 +604,9 @@
     <t>Extension.extension:basedOn.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.basedOn</t>
+  </si>
+  <si>
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
@@ -623,6 +638,9 @@
     <t>Extension.extension:category.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.category</t>
+  </si>
+  <si>
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
@@ -651,6 +669,9 @@
   </si>
   <si>
     <t>Extension.extension:code.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.code</t>
   </si>
   <si>
     <t>Extension.extension:code.value[x]</t>
@@ -684,6 +705,9 @@
     <t>Extension.extension:studyUid.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.studyUid</t>
+  </si>
+  <si>
     <t>Extension.extension:studyUid.value[x]</t>
   </si>
   <si>
@@ -715,6 +739,9 @@
     <t>Extension.extension:derivedFrom.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.derivedFrom</t>
+  </si>
+  <si>
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
@@ -749,6 +776,9 @@
     <t>Extension.extension:endpoint.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.endpoint</t>
+  </si>
+  <si>
     <t>Extension.extension:endpoint.value[x]</t>
   </si>
   <si>
@@ -784,6 +814,9 @@
     <t>Extension.extension:seriesUid.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.seriesUid</t>
+  </si>
+  <si>
     <t>Extension.extension:seriesUid.value[x]</t>
   </si>
   <si>
@@ -809,6 +842,9 @@
   </si>
   <si>
     <t>Extension.extension:seriesNumber.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.seriesNumber</t>
   </si>
   <si>
     <t>Extension.extension:seriesNumber.value[x]</t>
@@ -846,6 +882,9 @@
     <t>Extension.extension:frameOfReferenceUid.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.frameOfReferenceUid</t>
+  </si>
+  <si>
     <t>Extension.extension:frameOfReferenceUid.value[x]</t>
   </si>
   <si>
@@ -915,8 +954,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:concept.id</t>
@@ -949,8 +988,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:reference.id</t>
@@ -972,6 +1011,9 @@
     <t>Extension.extension:bodySite.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.bodySite</t>
+  </si>
+  <si>
     <t>Extension.extension:bodySite.value[x]</t>
   </si>
   <si>
@@ -1003,6 +1045,9 @@
     <t>Extension.extension:focus.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.focus</t>
+  </si>
+  <si>
     <t>Extension.extension:focus.value[x]</t>
   </si>
   <si>
@@ -1058,6 +1103,9 @@
     <t>Extension.extension:instance.extension:uid.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.instance.uid</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:uid.value[x]</t>
   </si>
   <si>
@@ -1089,6 +1137,9 @@
     <t>Extension.extension:instance.extension:number.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.instance.number</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:number.value[x]</t>
   </si>
   <si>
@@ -1114,6 +1165,9 @@
   </si>
   <si>
     <t>Extension.extension:instance.extension:sopClass.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.instance.sopClass</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:sopClass.value[x]</t>
@@ -1152,6 +1206,9 @@
     <t>Extension.extension:instance.extension:subset.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.instance.subset</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:subset.value[x]</t>
   </si>
   <si>
@@ -1213,6 +1270,9 @@
     <t>Extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.instance.imageRegion2D.regionType</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:imageRegion2D.extension:regionType.value[x]</t>
   </si>
   <si>
@@ -1247,6 +1307,9 @@
     <t>Extension.extension:instance.extension:imageRegion2D.extension:coordinate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.instance.imageRegion2D.coordinate</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:imageRegion2D.extension:coordinate.value[x]</t>
   </si>
   <si>
@@ -1305,6 +1368,9 @@
     <t>Extension.extension:instance.extension:imageRegion3D.extension:regionType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.instance.imageRegion3D.regionType</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:imageRegion3D.extension:regionType.value[x]</t>
   </si>
   <si>
@@ -1327,6 +1393,9 @@
   </si>
   <si>
     <t>Extension.extension:instance.extension:imageRegion3D.extension:coordinate.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingSelection.instance.imageRegion3D.coordinate</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:imageRegion3D.extension:coordinate.value[x]</t>
@@ -2495,7 +2564,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2537,7 +2606,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2552,15 +2621,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2583,7 +2652,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -2642,7 +2711,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2654,21 +2723,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2693,14 +2762,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2769,7 +2838,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2872,7 +2941,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2977,7 +3046,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -3020,7 +3089,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3062,7 +3131,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -3077,15 +3146,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3108,13 +3177,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3165,7 +3234,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3177,21 +3246,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3216,14 +3285,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3292,7 +3361,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3395,7 +3464,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3498,13 +3567,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3529,14 +3598,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3605,10 +3674,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3708,10 +3777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3813,10 +3882,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3856,7 +3925,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3898,7 +3967,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3913,15 +3982,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3944,13 +4013,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3977,13 +4046,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4001,7 +4070,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4013,21 +4082,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -4052,14 +4121,14 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4128,10 +4197,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4231,10 +4300,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4336,10 +4405,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4379,7 +4448,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4421,7 +4490,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4436,15 +4505,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4467,13 +4536,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4524,7 +4593,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4536,15 +4605,15 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4587,7 +4656,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4629,7 +4698,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4644,15 +4713,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4675,13 +4744,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4732,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4744,21 +4813,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4783,14 +4852,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4859,7 +4928,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4962,7 +5031,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5067,7 +5136,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5110,7 +5179,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5152,7 +5221,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5167,15 +5236,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5198,13 +5267,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5255,7 +5324,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5267,21 +5336,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5306,14 +5375,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5382,7 +5451,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5485,7 +5554,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5590,7 +5659,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5633,7 +5702,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5675,7 +5744,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5690,15 +5759,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5721,13 +5790,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5778,7 +5847,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5790,21 +5859,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5829,16 +5898,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5907,7 +5976,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6010,7 +6079,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6115,7 +6184,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6158,7 +6227,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6200,7 +6269,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6215,15 +6284,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6246,16 +6315,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6305,7 +6374,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6317,21 +6386,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6356,16 +6425,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6434,7 +6503,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6537,7 +6606,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6642,7 +6711,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -6685,7 +6754,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6727,7 +6796,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6742,15 +6811,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6773,16 +6842,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6832,7 +6901,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6844,21 +6913,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6883,14 +6952,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6959,7 +7028,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -7062,7 +7131,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -7167,7 +7236,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7210,7 +7279,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7252,7 +7321,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7267,15 +7336,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7298,13 +7367,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7355,7 +7424,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7367,21 +7436,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7406,16 +7475,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7484,7 +7553,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7587,7 +7656,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7692,7 +7761,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -7735,7 +7804,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7777,7 +7846,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -7792,15 +7861,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7823,16 +7892,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7882,7 +7951,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7894,21 +7963,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7933,16 +8002,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8011,7 +8080,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -8114,7 +8183,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8219,7 +8288,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8262,7 +8331,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8304,7 +8373,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -8319,15 +8388,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8350,16 +8419,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8409,7 +8478,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8421,21 +8490,21 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8460,16 +8529,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8538,7 +8607,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8641,7 +8710,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8746,7 +8815,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8789,7 +8858,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8831,7 +8900,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -8846,15 +8915,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8877,16 +8946,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8936,7 +9005,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8948,21 +9017,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8987,16 +9056,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9065,7 +9134,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9168,7 +9237,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9273,7 +9342,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9316,7 +9385,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9358,7 +9427,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9373,15 +9442,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9404,16 +9473,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9463,7 +9532,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9475,21 +9544,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9514,14 +9583,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9590,7 +9659,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -9693,7 +9762,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -9796,13 +9865,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9827,10 +9896,10 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9901,10 +9970,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10004,10 +10073,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10109,10 +10178,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10152,7 +10221,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10194,7 +10263,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>86</v>
@@ -10209,15 +10278,15 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10243,13 +10312,13 @@
         <v>87</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10257,7 +10326,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -10299,7 +10368,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10311,21 +10380,21 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10350,14 +10419,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10426,10 +10495,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10529,10 +10598,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10634,10 +10703,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10677,7 +10746,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10719,7 +10788,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -10734,15 +10803,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10765,13 +10834,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10798,11 +10867,11 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10820,7 +10889,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10832,21 +10901,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10871,14 +10940,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10947,10 +11016,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11050,10 +11119,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11155,10 +11224,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11198,7 +11267,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11240,7 +11309,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -11255,15 +11324,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11286,13 +11355,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11343,7 +11412,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11355,15 +11424,15 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11406,7 +11475,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11448,7 +11517,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -11463,15 +11532,15 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11494,13 +11563,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11551,7 +11620,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -11563,21 +11632,21 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11602,16 +11671,16 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11680,7 +11749,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -11783,7 +11852,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -11888,7 +11957,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -11931,7 +12000,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11973,7 +12042,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>86</v>
@@ -11988,15 +12057,15 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12019,16 +12088,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12078,7 +12147,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -12090,21 +12159,21 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12129,14 +12198,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12205,7 +12274,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12308,7 +12377,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12411,13 +12480,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12442,16 +12511,16 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12520,10 +12589,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12623,10 +12692,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12728,10 +12797,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12771,7 +12840,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12813,7 +12882,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -12828,15 +12897,15 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12859,16 +12928,16 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -12918,7 +12987,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -12930,21 +12999,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12969,16 +13038,16 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13047,10 +13116,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13150,10 +13219,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13255,10 +13324,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13298,7 +13367,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13340,7 +13409,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>86</v>
@@ -13355,15 +13424,15 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13386,16 +13455,16 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13445,7 +13514,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13457,21 +13526,21 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13496,16 +13565,16 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13574,10 +13643,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13677,10 +13746,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13782,10 +13851,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13825,7 +13894,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13867,7 +13936,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>86</v>
@@ -13882,15 +13951,15 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13913,16 +13982,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -13972,7 +14041,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -13984,21 +14053,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14023,14 +14092,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14099,10 +14168,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14202,10 +14271,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14307,10 +14376,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14350,7 +14419,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14392,7 +14461,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>86</v>
@@ -14407,15 +14476,15 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14441,10 +14510,10 @@
         <v>87</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14495,7 +14564,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -14507,21 +14576,21 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14546,14 +14615,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14622,10 +14691,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14725,10 +14794,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14828,13 +14897,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -14859,16 +14928,16 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -14937,10 +15006,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15040,10 +15109,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15145,10 +15214,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15188,7 +15257,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15230,7 +15299,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>86</v>
@@ -15245,15 +15314,15 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15276,16 +15345,16 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -15335,7 +15404,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -15347,21 +15416,21 @@
         <v>77</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15386,16 +15455,16 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15464,10 +15533,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15567,10 +15636,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15672,10 +15741,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15715,7 +15784,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15757,7 +15826,7 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>86</v>
@@ -15772,15 +15841,15 @@
         <v>77</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15803,16 +15872,16 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -15862,7 +15931,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -15874,18 +15943,18 @@
         <v>77</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15925,7 +15994,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15967,7 +16036,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>86</v>
@@ -15982,15 +16051,15 @@
         <v>77</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16013,13 +16082,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16070,7 +16139,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -16082,21 +16151,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16121,14 +16190,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16197,10 +16266,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16300,10 +16369,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16403,13 +16472,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16434,16 +16503,16 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16512,10 +16581,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16615,10 +16684,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16720,10 +16789,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16763,7 +16832,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -16805,7 +16874,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>86</v>
@@ -16820,15 +16889,15 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16851,16 +16920,16 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -16910,7 +16979,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -16922,21 +16991,21 @@
         <v>77</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -16961,16 +17030,16 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17039,10 +17108,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17142,10 +17211,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17247,10 +17316,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17290,7 +17359,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17332,7 +17401,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>86</v>
@@ -17347,15 +17416,15 @@
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17378,16 +17447,16 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -17437,7 +17506,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -17449,18 +17518,18 @@
         <v>77</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17500,7 +17569,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17542,7 +17611,7 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>86</v>
@@ -17557,15 +17626,15 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17588,13 +17657,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17645,7 +17714,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -17657,15 +17726,15 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>115</v>
@@ -17708,7 +17777,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17750,7 +17819,7 @@
         <v>77</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>86</v>
@@ -17765,15 +17834,15 @@
         <v>77</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17796,13 +17865,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -17853,7 +17922,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -17865,18 +17934,18 @@
         <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -17958,7 +18027,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>86</v>
@@ -17973,15 +18042,15 @@
         <v>77</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18004,13 +18073,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -18061,7 +18130,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -18073,10 +18142,10 @@
         <v>77</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ImagingSelection.xlsx
+++ b/StructureDefinition-ext-R5-ImagingSelection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -518,15 +518,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The type of involvement of the performer.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-series-performer-function-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:performer.extension:actor</t>
   </si>
   <si>
@@ -557,7 +548,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
 </t>
   </si>
   <si>
@@ -610,7 +601,7 @@
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|0.0.1-snapshot-3|CarePlan|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Appointment|0.0.1-snapshot-3|Appointment|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-AppointmentResponse|0.0.1-snapshot-3|AppointmentResponse|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|0.0.1-snapshot-3|Task|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|CarePlan|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-Appointment|Appointment|http://hl7.org/fhir/5.0/StructureDefinition/profile-AppointmentResponse|AppointmentResponse|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|Task)
 </t>
   </si>
   <si>
@@ -745,7 +736,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingStudy|0.0.1-snapshot-3|ImagingStudy|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingStudy|ImagingStudy|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
 </t>
   </si>
   <si>
@@ -782,7 +773,7 @@
     <t>Extension.extension:endpoint.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint)
 </t>
   </si>
   <si>
@@ -954,8 +945,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:concept.id</t>
@@ -973,7 +963,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-body-site-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-body-site-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:reference</t>
@@ -988,8 +978,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:reference.id</t>
@@ -1004,7 +993,7 @@
     <t>Extension.extension:bodySite.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|0.0.1-snapshot-3|BodyStructure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|BodyStructure)
 </t>
   </si>
   <si>
@@ -1051,7 +1040,7 @@
     <t>Extension.extension:focus.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingSelection|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingSelection|Basic)
 </t>
   </si>
   <si>
@@ -1766,8 +1755,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="34.90625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.24609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4046,13 +4035,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4090,13 +4079,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -4121,14 +4110,14 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4197,7 +4186,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>152</v>
@@ -4300,7 +4289,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>154</v>
@@ -4405,7 +4394,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>156</v>
@@ -4448,7 +4437,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4510,7 +4499,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>159</v>
@@ -4536,13 +4525,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4613,7 +4602,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4656,7 +4645,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4718,7 +4707,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -4744,13 +4733,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4821,13 +4810,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4852,14 +4841,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4928,7 +4917,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5031,7 +5020,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5136,7 +5125,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5179,7 +5168,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5241,7 +5230,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -5267,13 +5256,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5344,13 +5333,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5375,14 +5364,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5451,7 +5440,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5554,7 +5543,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5659,7 +5648,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5702,7 +5691,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5764,7 +5753,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -5793,10 +5782,10 @@
         <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5867,13 +5856,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5898,16 +5887,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5976,7 +5965,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6079,7 +6068,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6184,7 +6173,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6227,7 +6216,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6289,7 +6278,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -6318,13 +6307,13 @@
         <v>160</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6394,13 +6383,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6425,16 +6414,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6503,7 +6492,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6606,7 +6595,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6711,7 +6700,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -6754,7 +6743,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6816,7 +6805,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>124</v>
@@ -6842,16 +6831,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6921,13 +6910,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6952,14 +6941,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7028,7 +7017,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -7131,7 +7120,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -7236,7 +7225,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7279,7 +7268,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7341,7 +7330,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>124</v>
@@ -7367,13 +7356,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7444,13 +7433,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7475,16 +7464,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7553,7 +7542,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7656,7 +7645,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7761,7 +7750,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -7804,7 +7793,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7866,7 +7855,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>124</v>
@@ -7892,16 +7881,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7971,13 +7960,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8002,16 +7991,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8080,7 +8069,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -8183,7 +8172,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8288,7 +8277,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8331,7 +8320,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8393,7 +8382,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>124</v>
@@ -8419,16 +8408,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8498,13 +8487,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8529,16 +8518,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8607,7 +8596,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8710,7 +8699,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8815,7 +8804,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8858,7 +8847,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8920,7 +8909,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>124</v>
@@ -8946,16 +8935,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9025,13 +9014,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9056,16 +9045,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9134,7 +9123,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9237,7 +9226,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9342,7 +9331,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9385,7 +9374,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9447,7 +9436,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>124</v>
@@ -9473,16 +9462,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9552,13 +9541,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9583,14 +9572,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9659,7 +9648,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -9762,7 +9751,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -9865,13 +9854,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9896,10 +9885,10 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9970,7 +9959,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>152</v>
@@ -10073,7 +10062,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>154</v>
@@ -10178,7 +10167,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>156</v>
@@ -10221,7 +10210,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10283,7 +10272,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>159</v>
@@ -10312,13 +10301,13 @@
         <v>87</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10326,7 +10315,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -10388,13 +10377,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10419,14 +10408,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10495,7 +10484,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>152</v>
@@ -10598,7 +10587,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>154</v>
@@ -10703,7 +10692,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>156</v>
@@ -10746,7 +10735,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10808,7 +10797,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>159</v>
@@ -10837,10 +10826,10 @@
         <v>160</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10867,11 +10856,11 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10909,13 +10898,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10940,14 +10929,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11016,7 +11005,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>152</v>
@@ -11119,7 +11108,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>154</v>
@@ -11224,7 +11213,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>156</v>
@@ -11267,7 +11256,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11329,7 +11318,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>159</v>
@@ -11355,13 +11344,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11432,7 +11421,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11475,7 +11464,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11537,7 +11526,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>124</v>
@@ -11563,13 +11552,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11640,13 +11629,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11671,16 +11660,16 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O95" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11749,7 +11738,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -11852,7 +11841,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -11957,7 +11946,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -12000,7 +11989,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12062,7 +12051,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>124</v>
@@ -12088,16 +12077,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12167,13 +12156,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12198,14 +12187,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12274,7 +12263,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12377,7 +12366,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12480,13 +12469,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12511,16 +12500,16 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O103" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12589,7 +12578,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>152</v>
@@ -12692,7 +12681,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>154</v>
@@ -12797,7 +12786,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>156</v>
@@ -12840,7 +12829,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12902,7 +12891,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>159</v>
@@ -12928,16 +12917,16 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13007,13 +12996,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13038,16 +13027,16 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O108" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13116,7 +13105,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>152</v>
@@ -13219,7 +13208,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>154</v>
@@ -13324,7 +13313,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>156</v>
@@ -13367,7 +13356,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13429,7 +13418,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>159</v>
@@ -13455,16 +13444,16 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13534,13 +13523,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13565,16 +13554,16 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13643,7 +13632,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>152</v>
@@ -13746,7 +13735,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>154</v>
@@ -13851,7 +13840,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>156</v>
@@ -13894,7 +13883,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13956,7 +13945,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>159</v>
@@ -13982,16 +13971,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14061,13 +14050,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14092,14 +14081,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14168,7 +14157,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>152</v>
@@ -14271,7 +14260,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>154</v>
@@ -14376,7 +14365,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>156</v>
@@ -14419,7 +14408,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14481,7 +14470,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>159</v>
@@ -14510,10 +14499,10 @@
         <v>87</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14584,13 +14573,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14615,14 +14604,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14691,7 +14680,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>152</v>
@@ -14794,7 +14783,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>154</v>
@@ -14897,13 +14886,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>154</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -14928,16 +14917,16 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O126" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15006,10 +14995,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15109,10 +15098,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15214,10 +15203,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15257,7 +15246,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15319,10 +15308,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15348,13 +15337,13 @@
         <v>125</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -15424,13 +15413,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>154</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15455,16 +15444,16 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O131" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15533,10 +15522,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15636,10 +15625,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15741,10 +15730,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15784,7 +15773,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15846,10 +15835,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15872,16 +15861,16 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -15951,7 +15940,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>156</v>
@@ -15994,7 +15983,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16056,7 +16045,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>159</v>
@@ -16082,13 +16071,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16159,13 +16148,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16190,14 +16179,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16266,7 +16255,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>152</v>
@@ -16369,7 +16358,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>154</v>
@@ -16472,13 +16461,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>154</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16503,16 +16492,16 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16581,10 +16570,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16684,10 +16673,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16789,10 +16778,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16832,7 +16821,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -16894,10 +16883,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16923,13 +16912,13 @@
         <v>125</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -16999,13 +16988,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>154</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17030,16 +17019,16 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17108,10 +17097,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17211,10 +17200,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17316,10 +17305,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17359,7 +17348,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17421,10 +17410,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17447,16 +17436,16 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -17526,7 +17515,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>156</v>
@@ -17569,7 +17558,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17631,7 +17620,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>159</v>
@@ -17657,13 +17646,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17734,7 +17723,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>115</v>
@@ -17777,7 +17766,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17839,7 +17828,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>124</v>
@@ -17865,13 +17854,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -18073,13 +18062,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>

--- a/StructureDefinition-ext-R5-ImagingSelection.xlsx
+++ b/StructureDefinition-ext-R5-ImagingSelection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,6 +410,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the ImagingSelection.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-imagingselection-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -518,6 +527,15 @@
 </t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The type of involvement of the performer.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/series-performer-function|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:performer.extension:actor</t>
   </si>
   <si>
@@ -548,7 +566,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -601,7 +619,7 @@
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|CarePlan|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-Appointment|Appointment|http://hl7.org/fhir/5.0/StructureDefinition/profile-AppointmentResponse|AppointmentResponse|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|Task)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|0.0.1-snapshot-3|CarePlan|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Appointment|0.0.1-snapshot-3|Appointment|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-AppointmentResponse|0.0.1-snapshot-3|AppointmentResponse|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|0.0.1-snapshot-3|Task|4.0.1)
 </t>
   </si>
   <si>
@@ -633,6 +651,15 @@
   </si>
   <si>
     <t>Extension.extension:category.value[x]</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Key Object Selection Document Title.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-dicom-cid-7010-KeyObjectSelectionDocumentTitle-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:code</t>
@@ -736,7 +763,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingStudy|ImagingStudy|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingStudy|0.0.1-snapshot-3|ImagingStudy|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
 </t>
   </si>
   <si>
@@ -773,7 +800,7 @@
     <t>Extension.extension:endpoint.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -945,7 +972,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:concept.id</t>
@@ -960,12 +987,6 @@
     <t>Extension.extension:bodySite.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-body-site-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:bodySite.extension:reference</t>
   </si>
   <si>
@@ -978,7 +999,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:reference.id</t>
@@ -993,7 +1014,7 @@
     <t>Extension.extension:bodySite.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|BodyStructure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|0.0.1-snapshot-3|BodyStructure|4.0.1)
 </t>
   </si>
   <si>
@@ -1040,7 +1061,7 @@
     <t>Extension.extension:focus.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingSelection|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingSelection|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -1268,6 +1289,12 @@
     <t>Extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
+    <t>The type of image region.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-imagingselection-2dgraphictype-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:instance.extension:imageRegion2D.extension:coordinate</t>
   </si>
   <si>
@@ -1361,6 +1388,9 @@
   </si>
   <si>
     <t>Extension.extension:instance.extension:imageRegion3D.extension:regionType.value[x]</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-imagingselection-3dgraphictype-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:imageRegion3D.extension:coordinate</t>
@@ -1755,8 +1785,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="34.90625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="94.2421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2676,13 +2706,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2700,7 +2730,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2712,7 +2742,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -2720,13 +2750,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2751,14 +2781,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2827,7 +2857,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2930,7 +2960,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -3035,7 +3065,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -3078,7 +3108,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3140,7 +3170,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -3166,13 +3196,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3223,7 +3253,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3235,7 +3265,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -3243,13 +3273,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3274,14 +3304,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3350,7 +3380,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3453,7 +3483,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3556,13 +3586,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3587,14 +3617,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3663,10 +3693,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3766,10 +3796,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3871,10 +3901,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3914,7 +3944,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3976,10 +4006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4002,13 +4032,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4035,13 +4065,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4059,7 +4089,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4071,7 +4101,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>122</v>
@@ -4079,13 +4109,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -4110,14 +4140,14 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4186,10 +4216,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4289,10 +4319,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4394,10 +4424,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4437,7 +4467,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4499,10 +4529,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4525,13 +4555,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4582,7 +4612,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4594,7 +4624,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>122</v>
@@ -4602,7 +4632,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4645,7 +4675,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4707,7 +4737,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -4733,13 +4763,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4790,7 +4820,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4802,7 +4832,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>122</v>
@@ -4810,13 +4840,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4841,14 +4871,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4917,7 +4947,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5020,7 +5050,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5125,7 +5155,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5168,7 +5198,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5230,7 +5260,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -5256,13 +5286,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5313,7 +5343,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5325,7 +5355,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>122</v>
@@ -5333,13 +5363,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5364,14 +5394,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5440,7 +5470,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5543,7 +5573,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5648,7 +5678,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5691,7 +5721,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5753,7 +5783,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -5779,13 +5809,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5812,13 +5842,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5836,7 +5866,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5848,7 +5878,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>122</v>
@@ -5856,13 +5886,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5887,16 +5917,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5965,7 +5995,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6068,7 +6098,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6173,7 +6203,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6216,7 +6246,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6278,7 +6308,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -6304,16 +6334,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6339,13 +6369,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6363,7 +6393,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6375,7 +6405,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>122</v>
@@ -6383,13 +6413,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6414,16 +6444,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6492,7 +6522,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6595,7 +6625,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6700,7 +6730,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -6743,7 +6773,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6805,7 +6835,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>124</v>
@@ -6831,16 +6861,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6890,7 +6920,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6902,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>122</v>
@@ -6910,13 +6940,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6941,14 +6971,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7017,7 +7047,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -7120,7 +7150,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -7225,7 +7255,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7268,7 +7298,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7330,7 +7360,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>124</v>
@@ -7356,13 +7386,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7413,7 +7443,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7425,7 +7455,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>122</v>
@@ -7433,13 +7463,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7464,16 +7494,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7542,7 +7572,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7645,7 +7675,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7750,7 +7780,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -7793,7 +7823,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7855,7 +7885,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>124</v>
@@ -7881,16 +7911,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7940,7 +7970,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7952,7 +7982,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>122</v>
@@ -7960,13 +7990,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7991,16 +8021,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8069,7 +8099,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -8172,7 +8202,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8277,7 +8307,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8320,7 +8350,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8382,7 +8412,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>124</v>
@@ -8408,16 +8438,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8467,7 +8497,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8479,7 +8509,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>122</v>
@@ -8487,13 +8517,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8518,16 +8548,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="O65" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8596,7 +8626,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8699,7 +8729,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8804,7 +8834,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8847,7 +8877,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8909,7 +8939,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>124</v>
@@ -8935,16 +8965,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8994,7 +9024,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9006,7 +9036,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>122</v>
@@ -9014,13 +9044,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9045,16 +9075,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9123,7 +9153,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9226,7 +9256,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9331,7 +9361,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9374,7 +9404,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9436,7 +9466,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>124</v>
@@ -9462,16 +9492,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9521,7 +9551,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9533,7 +9563,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>122</v>
@@ -9541,13 +9571,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9572,14 +9602,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9648,7 +9678,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -9751,7 +9781,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -9854,13 +9884,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9885,10 +9915,10 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9959,10 +9989,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10062,10 +10092,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10167,10 +10197,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10210,7 +10240,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10272,10 +10302,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10301,13 +10331,13 @@
         <v>87</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10315,7 +10345,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -10357,7 +10387,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10369,7 +10399,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>122</v>
@@ -10377,13 +10407,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10408,14 +10438,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10484,10 +10514,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10587,10 +10617,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10692,10 +10722,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10735,7 +10765,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10797,10 +10827,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10823,13 +10853,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10856,11 +10886,13 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="Y87" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z87" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10878,7 +10910,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10890,7 +10922,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>122</v>
@@ -10898,13 +10930,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10929,14 +10961,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11005,10 +11037,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11108,10 +11140,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11213,10 +11245,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11256,7 +11288,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11318,10 +11350,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11344,13 +11376,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="M92" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11401,7 +11433,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11413,7 +11445,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>122</v>
@@ -11421,7 +11453,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11464,7 +11496,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11526,7 +11558,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>124</v>
@@ -11552,13 +11584,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11609,7 +11641,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -11621,7 +11653,7 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>122</v>
@@ -11629,13 +11661,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11660,16 +11692,16 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11738,7 +11770,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -11841,7 +11873,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -11946,7 +11978,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -11989,7 +12021,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12051,7 +12083,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>124</v>
@@ -12077,16 +12109,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12136,7 +12168,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -12148,7 +12180,7 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>122</v>
@@ -12156,13 +12188,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12187,14 +12219,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12263,7 +12295,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12366,7 +12398,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12469,13 +12501,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12500,16 +12532,16 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12578,10 +12610,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12681,10 +12713,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12786,10 +12818,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12829,7 +12861,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12891,10 +12923,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12917,16 +12949,16 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -12976,7 +13008,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -12988,7 +13020,7 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>122</v>
@@ -12996,13 +13028,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13027,16 +13059,16 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13105,10 +13137,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13208,10 +13240,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13313,10 +13345,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13356,7 +13388,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13418,10 +13450,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13444,16 +13476,16 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13503,7 +13535,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13515,7 +13547,7 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>122</v>
@@ -13523,13 +13555,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13554,16 +13586,16 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13632,10 +13664,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13735,10 +13767,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13840,10 +13872,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13883,7 +13915,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13945,10 +13977,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13971,16 +14003,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L117" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="N117" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14030,7 +14062,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -14042,7 +14074,7 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>122</v>
@@ -14050,13 +14082,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14081,14 +14113,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14157,10 +14189,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14260,10 +14292,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14365,10 +14397,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14408,7 +14440,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14470,10 +14502,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14499,10 +14531,10 @@
         <v>87</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14553,7 +14585,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -14565,7 +14597,7 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>122</v>
@@ -14573,13 +14605,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14604,14 +14636,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14680,10 +14712,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14783,10 +14815,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14886,13 +14918,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -14917,16 +14949,16 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -14995,10 +15027,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15098,10 +15130,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15203,10 +15235,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15246,7 +15278,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15308,10 +15340,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15337,13 +15369,13 @@
         <v>125</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -15369,13 +15401,13 @@
         <v>77</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -15393,7 +15425,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -15405,7 +15437,7 @@
         <v>77</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>122</v>
@@ -15413,13 +15445,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15444,16 +15476,16 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15522,10 +15554,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15625,10 +15657,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15730,10 +15762,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15773,7 +15805,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15835,10 +15867,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15861,16 +15893,16 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L135" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="M135" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -15920,7 +15952,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -15932,7 +15964,7 @@
         <v>77</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>122</v>
@@ -15940,10 +15972,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15983,7 +16015,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16045,10 +16077,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16071,13 +16103,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16128,7 +16160,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -16140,7 +16172,7 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>122</v>
@@ -16148,13 +16180,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16179,14 +16211,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16255,10 +16287,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16358,10 +16390,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16461,13 +16493,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16492,16 +16524,16 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16570,10 +16602,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16673,10 +16705,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16778,10 +16810,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16821,7 +16853,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -16883,10 +16915,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16912,13 +16944,13 @@
         <v>125</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -16944,13 +16976,13 @@
         <v>77</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>77</v>
@@ -16968,7 +17000,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -16980,7 +17012,7 @@
         <v>77</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>122</v>
@@ -16988,13 +17020,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17019,16 +17051,16 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17097,10 +17129,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17200,10 +17232,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17305,10 +17337,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17348,7 +17380,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17410,10 +17442,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17436,16 +17468,16 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L150" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="M150" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -17495,7 +17527,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -17507,7 +17539,7 @@
         <v>77</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>122</v>
@@ -17515,10 +17547,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17558,7 +17590,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17620,10 +17652,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17646,13 +17678,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17703,7 +17735,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -17715,7 +17747,7 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>122</v>
@@ -17723,7 +17755,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>115</v>
@@ -17766,7 +17798,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17828,7 +17860,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>124</v>
@@ -17854,13 +17886,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -17911,7 +17943,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -17923,7 +17955,7 @@
         <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>122</v>
@@ -18036,10 +18068,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18062,13 +18094,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -18119,7 +18151,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -18131,7 +18163,7 @@
         <v>77</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>122</v>
